--- a/biology/Zoologie/Garrulaxe_de_Rippon/Garrulaxe_de_Rippon.xlsx
+++ b/biology/Zoologie/Garrulaxe_de_Rippon/Garrulaxe_de_Rippon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liocichla ripponi
 Le Garrulaxe de Rippon (Liocichla ripponi) est une espèce de passereaux de la famille des Leiothrichidae.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commémore le colonel et ornithologue britannique George Rippon.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet oiseau vit de manière disparate à travers le nord de l'Indochine et régions avoisinantes du sud de la Chine.
@@ -575,7 +591,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes :
 Liocichla ripponi ripponi (Oates, 1900)
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Oates, 1900 : On a new species of Trochalopterum from the Shan States. Bulletin of the British Ornithologists' Club, vol. 1900, p. 10-11.</t>
         </is>
